--- a/dist/game/data/stats/skills/TODO.xlsx
+++ b/dist/game/data/stats/skills/TODO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="556">
   <si>
     <t>Skill Name</t>
   </si>
@@ -2079,7 +2079,7 @@
   <dimension ref="A1:G590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G2" s="5">
         <f>COUNTIF(C2:C590,"yes")</f>
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="G3">
         <f>589-G2</f>
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G4" s="7">
         <f>100-(G3*100)/589</f>
-        <v>69.269949066213925</v>
+        <v>70.288624787775888</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6807,7 +6807,9 @@
       <c r="B410" s="2">
         <v>11538</v>
       </c>
-      <c r="C410" s="3"/>
+      <c r="C410" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D410" s="2"/>
     </row>
     <row r="411" spans="1:4">
@@ -6817,7 +6819,9 @@
       <c r="B411" s="2">
         <v>11539</v>
       </c>
-      <c r="C411" s="3"/>
+      <c r="C411" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D411" s="2"/>
     </row>
     <row r="412" spans="1:4">
@@ -6993,7 +6997,9 @@
       <c r="B426" s="2">
         <v>11557</v>
       </c>
-      <c r="C426" s="3"/>
+      <c r="C426" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D426" s="2"/>
     </row>
     <row r="427" spans="1:4">
@@ -7003,7 +7009,9 @@
       <c r="B427" s="2">
         <v>11558</v>
       </c>
-      <c r="C427" s="3"/>
+      <c r="C427" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D427" s="2"/>
     </row>
     <row r="428" spans="1:4">
@@ -7013,7 +7021,9 @@
       <c r="B428" s="2">
         <v>11559</v>
       </c>
-      <c r="C428" s="3"/>
+      <c r="C428" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D428" s="2"/>
     </row>
     <row r="429" spans="1:4">
@@ -7035,7 +7045,9 @@
       <c r="B430" s="2">
         <v>11561</v>
       </c>
-      <c r="C430" s="3"/>
+      <c r="C430" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D430" s="2"/>
     </row>
     <row r="431" spans="1:4">

--- a/dist/game/data/stats/skills/TODO.xlsx
+++ b/dist/game/data/stats/skills/TODO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12990" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="SkillList" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="556">
   <si>
     <t>Skill Name</t>
   </si>
@@ -2079,7 +2079,7 @@
   <dimension ref="A1:G590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G2" s="5">
         <f>COUNTIF(C2:C590,"yes")</f>
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="G3">
         <f>589-G2</f>
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G4" s="7">
         <f>100-(G3*100)/589</f>
-        <v>70.288624787775888</v>
+        <v>71.307300509337864</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3239,7 +3239,9 @@
       <c r="B95" s="2">
         <v>10073</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4">
@@ -3273,7 +3275,7 @@
       <c r="B98" s="2">
         <v>10077</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4">
@@ -3283,7 +3285,9 @@
       <c r="B99" s="2">
         <v>10079</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4">
@@ -3293,7 +3297,9 @@
       <c r="B100" s="2">
         <v>10080</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4">
@@ -3313,7 +3319,9 @@
       <c r="B102" s="2">
         <v>10092</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4">
@@ -5975,7 +5983,9 @@
       <c r="B336" s="2">
         <v>11268</v>
       </c>
-      <c r="C336" s="3"/>
+      <c r="C336" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D336" s="2"/>
     </row>
     <row r="337" spans="1:4">
@@ -7545,7 +7555,9 @@
       <c r="B474" s="2">
         <v>11754</v>
       </c>
-      <c r="C474" s="3"/>
+      <c r="C474" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D474" s="2"/>
     </row>
     <row r="475" spans="1:4">

--- a/dist/game/data/stats/skills/TODO.xlsx
+++ b/dist/game/data/stats/skills/TODO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="556">
   <si>
     <t>Skill Name</t>
   </si>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G2" s="5">
         <f>COUNTIF(C2:C590,"yes")</f>
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="G3">
         <f>589-G2</f>
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G4" s="7">
         <f>100-(G3*100)/589</f>
-        <v>71.307300509337864</v>
+        <v>72.835314091680814</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2569,7 +2569,9 @@
       <c r="B38" s="2">
         <v>1927</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
@@ -2579,7 +2581,9 @@
       <c r="B39" s="2">
         <v>1929</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4">
@@ -2589,7 +2593,9 @@
       <c r="B40" s="2">
         <v>1931</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4">
@@ -2599,7 +2605,9 @@
       <c r="B41" s="2">
         <v>1933</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4">
@@ -2609,7 +2617,9 @@
       <c r="B42" s="2">
         <v>1935</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4">
@@ -2619,7 +2629,9 @@
       <c r="B43" s="2">
         <v>1937</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4">
@@ -2629,7 +2641,9 @@
       <c r="B44" s="2">
         <v>1939</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4">
@@ -8847,7 +8861,9 @@
       <c r="B589" s="2">
         <v>30602</v>
       </c>
-      <c r="C589" s="3"/>
+      <c r="C589" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D589" s="2"/>
     </row>
     <row r="590" spans="1:4">
@@ -8857,7 +8873,9 @@
       <c r="B590" s="2">
         <v>30605</v>
       </c>
-      <c r="C590" s="3"/>
+      <c r="C590" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D590" s="2"/>
     </row>
   </sheetData>

--- a/dist/game/data/stats/skills/TODO.xlsx
+++ b/dist/game/data/stats/skills/TODO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="556">
   <si>
     <t>Skill Name</t>
   </si>
@@ -1669,9 +1669,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Working</t>
-  </si>
-  <si>
     <t>Non Worning</t>
   </si>
   <si>
@@ -1681,7 +1678,10 @@
     <t>% done</t>
   </si>
   <si>
-    <t>XML done?</t>
+    <t>XML done/partially?</t>
+  </si>
+  <si>
+    <t>Working/ish</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2085,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2100,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2121,11 +2121,11 @@
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="5" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G2" s="5">
         <f>COUNTIF(C2:C590,"yes")</f>
-        <v>429</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2140,11 +2140,11 @@
       </c>
       <c r="D3" s="2"/>
       <c r="F3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G3">
         <f>589-G2</f>
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2159,11 +2159,11 @@
       </c>
       <c r="D4" s="2"/>
       <c r="F4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G4" s="7">
         <f>100-(G3*100)/589</f>
-        <v>72.835314091680814</v>
+        <v>85.568760611205434</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3289,7 +3289,9 @@
       <c r="B98" s="2">
         <v>10077</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4">
@@ -3323,7 +3325,9 @@
       <c r="B101" s="2">
         <v>10091</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4">
@@ -3345,7 +3349,9 @@
       <c r="B103" s="2">
         <v>10094</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4">
@@ -3355,7 +3361,9 @@
       <c r="B104" s="2">
         <v>10097</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4">
@@ -3413,7 +3421,9 @@
       <c r="B109" s="2">
         <v>10102</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4">
@@ -3435,7 +3445,9 @@
       <c r="B111" s="2">
         <v>10244</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4">
@@ -3493,7 +3505,9 @@
       <c r="B116" s="2">
         <v>10255</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4">
@@ -3887,7 +3901,9 @@
       <c r="B149" s="2">
         <v>10300</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4">
@@ -3907,7 +3923,9 @@
       <c r="B151" s="2">
         <v>10304</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4">
@@ -3917,7 +3935,9 @@
       <c r="B152" s="2">
         <v>10306</v>
       </c>
-      <c r="C152" s="3"/>
+      <c r="C152" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4">
@@ -3927,7 +3947,9 @@
       <c r="B153" s="2">
         <v>10308</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4">
@@ -3937,7 +3959,9 @@
       <c r="B154" s="2">
         <v>10309</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155" spans="1:4">
@@ -3947,7 +3971,9 @@
       <c r="B155" s="2">
         <v>10311</v>
       </c>
-      <c r="C155" s="3"/>
+      <c r="C155" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156" spans="1:4">
@@ -3967,7 +3993,9 @@
       <c r="B157" s="2">
         <v>10315</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4">
@@ -3977,7 +4005,9 @@
       <c r="B158" s="2">
         <v>10316</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4">
@@ -3987,7 +4017,9 @@
       <c r="B159" s="2">
         <v>10318</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4">
@@ -3997,7 +4029,9 @@
       <c r="B160" s="2">
         <v>10320</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4">
@@ -4007,7 +4041,9 @@
       <c r="B161" s="2">
         <v>10321</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4">
@@ -4017,7 +4053,9 @@
       <c r="B162" s="2">
         <v>10322</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163" spans="1:4">
@@ -4027,7 +4065,9 @@
       <c r="B163" s="2">
         <v>10324</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:4">
@@ -4037,7 +4077,9 @@
       <c r="B164" s="2">
         <v>10325</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165" spans="1:4">
@@ -4047,7 +4089,9 @@
       <c r="B165" s="2">
         <v>10327</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:4">
@@ -4057,7 +4101,9 @@
       <c r="B166" s="2">
         <v>10328</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4">
@@ -4067,7 +4113,9 @@
       <c r="B167" s="2">
         <v>10329</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168" spans="1:4">
@@ -4077,7 +4125,9 @@
       <c r="B168" s="2">
         <v>10330</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:4">
@@ -4519,7 +4569,9 @@
       <c r="B205" s="2">
         <v>10558</v>
       </c>
-      <c r="C205" s="3"/>
+      <c r="C205" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206" spans="1:4">
@@ -4553,7 +4605,9 @@
       <c r="B208" s="2">
         <v>10562</v>
       </c>
-      <c r="C208" s="3"/>
+      <c r="C208" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209" spans="1:4">
@@ -4563,7 +4617,9 @@
       <c r="B209" s="2">
         <v>10606</v>
       </c>
-      <c r="C209" s="3"/>
+      <c r="C209" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4">
@@ -4573,7 +4629,9 @@
       <c r="B210" s="2">
         <v>10608</v>
       </c>
-      <c r="C210" s="3"/>
+      <c r="C210" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:4">
@@ -4583,7 +4641,9 @@
       <c r="B211" s="2">
         <v>10609</v>
       </c>
-      <c r="C211" s="3"/>
+      <c r="C211" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212" spans="1:4">
@@ -4593,7 +4653,9 @@
       <c r="B212" s="2">
         <v>10610</v>
       </c>
-      <c r="C212" s="3"/>
+      <c r="C212" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213" spans="1:4">
@@ -4603,7 +4665,9 @@
       <c r="B213" s="2">
         <v>10653</v>
       </c>
-      <c r="C213" s="3"/>
+      <c r="C213" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214" spans="1:4">
@@ -4613,7 +4677,9 @@
       <c r="B214" s="2">
         <v>10655</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215" spans="1:4">
@@ -4623,7 +4689,9 @@
       <c r="B215" s="2">
         <v>10656</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="C215" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216" spans="1:4">
@@ -5181,7 +5249,9 @@
       <c r="B262" s="2">
         <v>10903</v>
       </c>
-      <c r="C262" s="3"/>
+      <c r="C262" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D262" s="2"/>
     </row>
     <row r="263" spans="1:4">
@@ -5201,7 +5271,9 @@
       <c r="B264" s="2">
         <v>10950</v>
       </c>
-      <c r="C264" s="3"/>
+      <c r="C264" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D264" s="2"/>
     </row>
     <row r="265" spans="1:4">
@@ -5211,7 +5283,9 @@
       <c r="B265" s="2">
         <v>10951</v>
       </c>
-      <c r="C265" s="3"/>
+      <c r="C265" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D265" s="2"/>
     </row>
     <row r="266" spans="1:4">
@@ -5689,7 +5763,9 @@
       <c r="B306" s="2">
         <v>11124</v>
       </c>
-      <c r="C306" s="3"/>
+      <c r="C306" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D306" s="2"/>
     </row>
     <row r="307" spans="1:4">
@@ -5699,7 +5775,9 @@
       <c r="B307" s="2">
         <v>11125</v>
       </c>
-      <c r="C307" s="3"/>
+      <c r="C307" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D307" s="2"/>
     </row>
     <row r="308" spans="1:4">
@@ -5759,7 +5837,9 @@
       <c r="B313" s="2">
         <v>11184</v>
       </c>
-      <c r="C313" s="3"/>
+      <c r="C313" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:4">
@@ -5769,7 +5849,9 @@
       <c r="B314" s="2">
         <v>11185</v>
       </c>
-      <c r="C314" s="3"/>
+      <c r="C314" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4">
@@ -5779,7 +5861,9 @@
       <c r="B315" s="2">
         <v>11186</v>
       </c>
-      <c r="C315" s="3"/>
+      <c r="C315" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4">
@@ -5789,7 +5873,9 @@
       <c r="B316" s="2">
         <v>11187</v>
       </c>
-      <c r="C316" s="3"/>
+      <c r="C316" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D316" s="2"/>
     </row>
     <row r="317" spans="1:4">
@@ -5799,7 +5885,9 @@
       <c r="B317" s="2">
         <v>11225</v>
       </c>
-      <c r="C317" s="3"/>
+      <c r="C317" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D317" s="2"/>
     </row>
     <row r="318" spans="1:4">
@@ -5809,7 +5897,9 @@
       <c r="B318" s="2">
         <v>11226</v>
       </c>
-      <c r="C318" s="3"/>
+      <c r="C318" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D318" s="2"/>
     </row>
     <row r="319" spans="1:4">
@@ -5819,7 +5909,9 @@
       <c r="B319" s="2">
         <v>11251</v>
       </c>
-      <c r="C319" s="3"/>
+      <c r="C319" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D319" s="2"/>
     </row>
     <row r="320" spans="1:4">
@@ -5829,7 +5921,9 @@
       <c r="B320" s="2">
         <v>11252</v>
       </c>
-      <c r="C320" s="3"/>
+      <c r="C320" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D320" s="2"/>
     </row>
     <row r="321" spans="1:4">
@@ -5839,7 +5933,9 @@
       <c r="B321" s="2">
         <v>11253</v>
       </c>
-      <c r="C321" s="3"/>
+      <c r="C321" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D321" s="2"/>
     </row>
     <row r="322" spans="1:4">
@@ -5849,7 +5945,9 @@
       <c r="B322" s="2">
         <v>11254</v>
       </c>
-      <c r="C322" s="3"/>
+      <c r="C322" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D322" s="2"/>
     </row>
     <row r="323" spans="1:4">
@@ -5905,7 +6003,9 @@
       <c r="B327" s="2">
         <v>11259</v>
       </c>
-      <c r="C327" s="3"/>
+      <c r="C327" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D327" s="2"/>
     </row>
     <row r="328" spans="1:4">
@@ -6079,7 +6179,9 @@
       <c r="B344" s="2">
         <v>11287</v>
       </c>
-      <c r="C344" s="3"/>
+      <c r="C344" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D344" s="2"/>
     </row>
     <row r="345" spans="1:4">
@@ -6099,7 +6201,9 @@
       <c r="B346" s="2">
         <v>11295</v>
       </c>
-      <c r="C346" s="3"/>
+      <c r="C346" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D346" s="2"/>
     </row>
     <row r="347" spans="1:4">
@@ -6119,7 +6223,9 @@
       <c r="B348" s="2">
         <v>11297</v>
       </c>
-      <c r="C348" s="3"/>
+      <c r="C348" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D348" s="2"/>
     </row>
     <row r="349" spans="1:4">
@@ -6375,7 +6481,9 @@
       <c r="B370" s="2">
         <v>11347</v>
       </c>
-      <c r="C370" s="3"/>
+      <c r="C370" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D370" s="2"/>
     </row>
     <row r="371" spans="1:4">
@@ -6395,7 +6503,9 @@
       <c r="B372" s="2">
         <v>11349</v>
       </c>
-      <c r="C372" s="3"/>
+      <c r="C372" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D372" s="2"/>
     </row>
     <row r="373" spans="1:4">
@@ -6465,7 +6575,9 @@
       <c r="B379" s="2">
         <v>11365</v>
       </c>
-      <c r="C379" s="3"/>
+      <c r="C379" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D379" s="2"/>
     </row>
     <row r="380" spans="1:4">
@@ -6739,7 +6851,9 @@
       <c r="B402" s="2">
         <v>11526</v>
       </c>
-      <c r="C402" s="3"/>
+      <c r="C402" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D402" s="2"/>
     </row>
     <row r="403" spans="1:4">
@@ -7093,7 +7207,9 @@
       <c r="B432" s="2">
         <v>11563</v>
       </c>
-      <c r="C432" s="3"/>
+      <c r="C432" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D432" s="2"/>
     </row>
     <row r="433" spans="1:4">
@@ -7193,7 +7309,9 @@
       <c r="B441" s="2">
         <v>11583</v>
       </c>
-      <c r="C441" s="3"/>
+      <c r="C441" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D441" s="2"/>
     </row>
     <row r="442" spans="1:4">
@@ -7203,7 +7321,9 @@
       <c r="B442" s="2">
         <v>11585</v>
       </c>
-      <c r="C442" s="3"/>
+      <c r="C442" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D442" s="2"/>
     </row>
     <row r="443" spans="1:4">
@@ -7213,7 +7333,9 @@
       <c r="B443" s="2">
         <v>11588</v>
       </c>
-      <c r="C443" s="3"/>
+      <c r="C443" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D443" s="2"/>
     </row>
     <row r="444" spans="1:4">
@@ -7403,7 +7525,9 @@
       <c r="B459" s="2">
         <v>11607</v>
       </c>
-      <c r="C459" s="3"/>
+      <c r="C459" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D459" s="2"/>
     </row>
     <row r="460" spans="1:4">
@@ -7413,7 +7537,9 @@
       <c r="B460" s="2">
         <v>11608</v>
       </c>
-      <c r="C460" s="3"/>
+      <c r="C460" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D460" s="2"/>
     </row>
     <row r="461" spans="1:4">
@@ -7423,7 +7549,9 @@
       <c r="B461" s="2">
         <v>11609</v>
       </c>
-      <c r="C461" s="3"/>
+      <c r="C461" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D461" s="2"/>
     </row>
     <row r="462" spans="1:4">
@@ -7493,7 +7621,9 @@
       <c r="B467" s="2">
         <v>11615</v>
       </c>
-      <c r="C467" s="3"/>
+      <c r="C467" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D467" s="2"/>
     </row>
     <row r="468" spans="1:4">
@@ -7503,7 +7633,9 @@
       <c r="B468" s="2">
         <v>11616</v>
       </c>
-      <c r="C468" s="3"/>
+      <c r="C468" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D468" s="2"/>
     </row>
     <row r="469" spans="1:4">
@@ -7513,7 +7645,9 @@
       <c r="B469" s="2">
         <v>11617</v>
       </c>
-      <c r="C469" s="3"/>
+      <c r="C469" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D469" s="2"/>
     </row>
     <row r="470" spans="1:4">
@@ -7523,7 +7657,9 @@
       <c r="B470" s="2">
         <v>11618</v>
       </c>
-      <c r="C470" s="3"/>
+      <c r="C470" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D470" s="2"/>
     </row>
     <row r="471" spans="1:4">
@@ -8005,7 +8141,9 @@
       <c r="B512" s="2">
         <v>11821</v>
       </c>
-      <c r="C512" s="3"/>
+      <c r="C512" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D512" s="2"/>
     </row>
     <row r="513" spans="1:4">
@@ -8015,7 +8153,9 @@
       <c r="B513" s="2">
         <v>11822</v>
       </c>
-      <c r="C513" s="3"/>
+      <c r="C513" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D513" s="2"/>
     </row>
     <row r="514" spans="1:4">
@@ -8045,7 +8185,9 @@
       <c r="B516" s="2">
         <v>11825</v>
       </c>
-      <c r="C516" s="3"/>
+      <c r="C516" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D516" s="2"/>
     </row>
     <row r="517" spans="1:4">
@@ -8079,7 +8221,9 @@
       <c r="B519" s="2">
         <v>11830</v>
       </c>
-      <c r="C519" s="3"/>
+      <c r="C519" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D519" s="2"/>
     </row>
     <row r="520" spans="1:4">
@@ -8167,7 +8311,9 @@
       <c r="B527" s="2">
         <v>11855</v>
       </c>
-      <c r="C527" s="3"/>
+      <c r="C527" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D527" s="2"/>
     </row>
     <row r="528" spans="1:4">
@@ -8411,7 +8557,9 @@
       <c r="B549" s="2">
         <v>30018</v>
       </c>
-      <c r="C549" s="3"/>
+      <c r="C549" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D549" s="2"/>
     </row>
     <row r="550" spans="1:4">
@@ -8807,7 +8955,9 @@
       <c r="B584" s="2">
         <v>30541</v>
       </c>
-      <c r="C584" s="3"/>
+      <c r="C584" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D584" s="2"/>
     </row>
     <row r="585" spans="1:4">

--- a/dist/game/data/stats/skills/TODO.xlsx
+++ b/dist/game/data/stats/skills/TODO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="556">
   <si>
     <t>Skill Name</t>
   </si>
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G590"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G2" s="5">
         <f>COUNTIF(C2:C590,"yes")</f>
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="G3">
         <f>589-G2</f>
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G4" s="7">
         <f>100-(G3*100)/589</f>
-        <v>85.568760611205434</v>
+        <v>85.73853989813243</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3983,7 +3983,9 @@
       <c r="B156" s="2">
         <v>10312</v>
       </c>
-      <c r="C156" s="3"/>
+      <c r="C156" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4">

--- a/dist/game/data/stats/skills/TODO.xlsx
+++ b/dist/game/data/stats/skills/TODO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="556">
   <si>
     <t>Skill Name</t>
   </si>
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G2" s="5">
         <f>COUNTIF(C2:C590,"yes")</f>
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="G3">
         <f>589-G2</f>
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G4" s="7">
         <f>100-(G3*100)/589</f>
-        <v>85.73853989813243</v>
+        <v>86.4176570458404</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3913,7 +3913,9 @@
       <c r="B150" s="2">
         <v>10301</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4">
@@ -4991,7 +4993,9 @@
       <c r="B240" s="2">
         <v>10778</v>
       </c>
-      <c r="C240" s="3"/>
+      <c r="C240" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D240" s="2"/>
     </row>
     <row r="241" spans="1:4">
@@ -5097,7 +5101,9 @@
       <c r="B249" s="2">
         <v>10788</v>
       </c>
-      <c r="C249" s="3"/>
+      <c r="C249" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D249" s="2"/>
     </row>
     <row r="250" spans="1:4">
@@ -5263,7 +5269,9 @@
       <c r="B263" s="2">
         <v>10904</v>
       </c>
-      <c r="C263" s="3"/>
+      <c r="C263" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D263" s="2"/>
     </row>
     <row r="264" spans="1:4">

--- a/dist/game/data/stats/skills/TODO.xlsx
+++ b/dist/game/data/stats/skills/TODO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="556">
   <si>
     <t>Skill Name</t>
   </si>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G2" s="5">
         <f>COUNTIF(C2:C590,"yes")</f>
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="G3">
         <f>589-G2</f>
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="G4" s="7">
         <f>100-(G3*100)/589</f>
-        <v>86.4176570458404</v>
+        <v>87.436332767402376</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5797,7 +5797,9 @@
       <c r="B308" s="2">
         <v>11151</v>
       </c>
-      <c r="C308" s="3"/>
+      <c r="C308" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D308" s="2"/>
     </row>
     <row r="309" spans="1:4">
@@ -5817,7 +5819,9 @@
       <c r="B310" s="2">
         <v>11176</v>
       </c>
-      <c r="C310" s="3"/>
+      <c r="C310" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D310" s="2"/>
     </row>
     <row r="311" spans="1:4">
@@ -5837,7 +5841,9 @@
       <c r="B312" s="2">
         <v>11183</v>
       </c>
-      <c r="C312" s="3"/>
+      <c r="C312" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4">
@@ -5967,7 +5973,9 @@
       <c r="B323" s="2">
         <v>11255</v>
       </c>
-      <c r="C323" s="3"/>
+      <c r="C323" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D323" s="2"/>
     </row>
     <row r="324" spans="1:4">
@@ -7075,7 +7083,9 @@
       <c r="B420" s="2">
         <v>11549</v>
       </c>
-      <c r="C420" s="3"/>
+      <c r="C420" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D420" s="2"/>
     </row>
     <row r="421" spans="1:4">
@@ -8299,7 +8309,9 @@
       <c r="B525" s="2">
         <v>11853</v>
       </c>
-      <c r="C525" s="3"/>
+      <c r="C525" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D525" s="2"/>
     </row>
     <row r="526" spans="1:4">

--- a/dist/game/data/stats/skills/TODO.xlsx
+++ b/dist/game/data/stats/skills/TODO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="559">
   <si>
     <t>Skill Name</t>
   </si>
@@ -1682,6 +1682,15 @@
   </si>
   <si>
     <t>Working/ish</t>
+  </si>
+  <si>
+    <t>TODO:</t>
+  </si>
+  <si>
+    <t>Make handler for pets?</t>
+  </si>
+  <si>
+    <t>Make it work for nearby targets.</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2095,7 @@
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
@@ -2125,7 +2134,7 @@
       </c>
       <c r="G2" s="5">
         <f>COUNTIF(C2:C590,"yes")</f>
-        <v>515</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2144,7 +2153,7 @@
       </c>
       <c r="G3">
         <f>589-G2</f>
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2163,7 +2172,7 @@
       </c>
       <c r="G4" s="7">
         <f>100-(G3*100)/589</f>
-        <v>87.436332767402376</v>
+        <v>92.190152801358238</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5711,7 +5720,9 @@
       <c r="B300" s="2">
         <v>11093</v>
       </c>
-      <c r="C300" s="3"/>
+      <c r="C300" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D300" s="2"/>
     </row>
     <row r="301" spans="1:4">
@@ -5743,7 +5754,9 @@
       <c r="B303" s="2">
         <v>11106</v>
       </c>
-      <c r="C303" s="3"/>
+      <c r="C303" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D303" s="2"/>
     </row>
     <row r="304" spans="1:4">
@@ -5753,7 +5766,9 @@
       <c r="B304" s="2">
         <v>11112</v>
       </c>
-      <c r="C304" s="3"/>
+      <c r="C304" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D304" s="2"/>
     </row>
     <row r="305" spans="1:4">
@@ -5763,7 +5778,9 @@
       <c r="B305" s="2">
         <v>11118</v>
       </c>
-      <c r="C305" s="3"/>
+      <c r="C305" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D305" s="2"/>
     </row>
     <row r="306" spans="1:4">
@@ -6034,7 +6051,9 @@
         <v>11260</v>
       </c>
       <c r="C328" s="3"/>
-      <c r="D328" s="2"/>
+      <c r="D328" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
@@ -6044,7 +6063,9 @@
         <v>11261</v>
       </c>
       <c r="C329" s="3"/>
-      <c r="D329" s="2"/>
+      <c r="D329" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2" t="s">
@@ -6054,7 +6075,9 @@
         <v>11262</v>
       </c>
       <c r="C330" s="3"/>
-      <c r="D330" s="2"/>
+      <c r="D330" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2" t="s">
@@ -6064,7 +6087,9 @@
         <v>11263</v>
       </c>
       <c r="C331" s="3"/>
-      <c r="D331" s="2"/>
+      <c r="D331" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2" t="s">
@@ -6085,7 +6110,9 @@
       <c r="B333" s="2">
         <v>11265</v>
       </c>
-      <c r="C333" s="3"/>
+      <c r="C333" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D333" s="2"/>
     </row>
     <row r="334" spans="1:4">
@@ -6105,7 +6132,9 @@
       <c r="B335" s="2">
         <v>11267</v>
       </c>
-      <c r="C335" s="3"/>
+      <c r="C335" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D335" s="2"/>
     </row>
     <row r="336" spans="1:4">
@@ -6127,7 +6156,9 @@
       <c r="B337" s="2">
         <v>11269</v>
       </c>
-      <c r="C337" s="3"/>
+      <c r="C337" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D337" s="2"/>
     </row>
     <row r="338" spans="1:4">
@@ -6137,7 +6168,9 @@
       <c r="B338" s="2">
         <v>11270</v>
       </c>
-      <c r="C338" s="3"/>
+      <c r="C338" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D338" s="2"/>
     </row>
     <row r="339" spans="1:4">
@@ -6209,7 +6242,9 @@
       <c r="B345" s="2">
         <v>11288</v>
       </c>
-      <c r="C345" s="3"/>
+      <c r="C345" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D345" s="2"/>
     </row>
     <row r="346" spans="1:4">
@@ -6253,7 +6288,9 @@
       <c r="B349" s="2">
         <v>11298</v>
       </c>
-      <c r="C349" s="3"/>
+      <c r="C349" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D349" s="2"/>
     </row>
     <row r="350" spans="1:4">
@@ -6263,8 +6300,12 @@
       <c r="B350" s="2">
         <v>11299</v>
       </c>
-      <c r="C350" s="3"/>
-      <c r="D350" s="2"/>
+      <c r="C350" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
@@ -6381,7 +6422,9 @@
       <c r="B360" s="2">
         <v>11316</v>
       </c>
-      <c r="C360" s="3"/>
+      <c r="C360" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D360" s="2"/>
     </row>
     <row r="361" spans="1:4">
@@ -6511,7 +6554,9 @@
       <c r="B371" s="2">
         <v>11348</v>
       </c>
-      <c r="C371" s="3"/>
+      <c r="C371" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D371" s="2"/>
     </row>
     <row r="372" spans="1:4">
@@ -6953,7 +6998,9 @@
       <c r="B409" s="2">
         <v>11537</v>
       </c>
-      <c r="C409" s="3"/>
+      <c r="C409" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D409" s="2"/>
     </row>
     <row r="410" spans="1:4">
@@ -7287,8 +7334,12 @@
       <c r="B437" s="2">
         <v>11570</v>
       </c>
-      <c r="C437" s="3"/>
-      <c r="D437" s="2"/>
+      <c r="C437" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2" t="s">
@@ -7297,7 +7348,9 @@
       <c r="B438" s="2">
         <v>11571</v>
       </c>
-      <c r="C438" s="3"/>
+      <c r="C438" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D438" s="2"/>
     </row>
     <row r="439" spans="1:4">
@@ -7308,7 +7361,9 @@
         <v>11580</v>
       </c>
       <c r="C439" s="3"/>
-      <c r="D439" s="2"/>
+      <c r="D439" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
@@ -7878,7 +7933,9 @@
         <v>11767</v>
       </c>
       <c r="C487" s="3"/>
-      <c r="D487" s="2"/>
+      <c r="D487" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2" t="s">
@@ -8121,7 +8178,9 @@
       <c r="B508" s="2">
         <v>11814</v>
       </c>
-      <c r="C508" s="3"/>
+      <c r="C508" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D508" s="2"/>
     </row>
     <row r="509" spans="1:4">
@@ -8131,7 +8190,9 @@
       <c r="B509" s="2">
         <v>11817</v>
       </c>
-      <c r="C509" s="3"/>
+      <c r="C509" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D509" s="2"/>
     </row>
     <row r="510" spans="1:4">
@@ -8141,7 +8202,9 @@
       <c r="B510" s="2">
         <v>11819</v>
       </c>
-      <c r="C510" s="3"/>
+      <c r="C510" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D510" s="2"/>
     </row>
     <row r="511" spans="1:4">
@@ -8151,7 +8214,9 @@
       <c r="B511" s="2">
         <v>11820</v>
       </c>
-      <c r="C511" s="3"/>
+      <c r="C511" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D511" s="2"/>
     </row>
     <row r="512" spans="1:4">
@@ -8185,7 +8250,9 @@
       <c r="B514" s="2">
         <v>11823</v>
       </c>
-      <c r="C514" s="3"/>
+      <c r="C514" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D514" s="2"/>
     </row>
     <row r="515" spans="1:4">
@@ -8195,7 +8262,9 @@
       <c r="B515" s="2">
         <v>11824</v>
       </c>
-      <c r="C515" s="3"/>
+      <c r="C515" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D515" s="2"/>
     </row>
     <row r="516" spans="1:4">
@@ -8263,7 +8332,9 @@
       <c r="B521" s="2">
         <v>11832</v>
       </c>
-      <c r="C521" s="3"/>
+      <c r="C521" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D521" s="2"/>
     </row>
     <row r="522" spans="1:4">
@@ -8345,7 +8416,9 @@
       <c r="B528" s="2">
         <v>11856</v>
       </c>
-      <c r="C528" s="3"/>
+      <c r="C528" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D528" s="2"/>
     </row>
     <row r="529" spans="1:4">
@@ -8365,7 +8438,9 @@
       <c r="B530" s="2">
         <v>11861</v>
       </c>
-      <c r="C530" s="3"/>
+      <c r="C530" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D530" s="2"/>
     </row>
     <row r="531" spans="1:4">
@@ -8375,7 +8450,9 @@
       <c r="B531" s="2">
         <v>11862</v>
       </c>
-      <c r="C531" s="3"/>
+      <c r="C531" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D531" s="2"/>
     </row>
     <row r="532" spans="1:4">
@@ -8385,7 +8462,9 @@
       <c r="B532" s="2">
         <v>11863</v>
       </c>
-      <c r="C532" s="3"/>
+      <c r="C532" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D532" s="2"/>
     </row>
     <row r="533" spans="1:4">
@@ -8407,7 +8486,9 @@
       <c r="B534" s="2">
         <v>19109</v>
       </c>
-      <c r="C534" s="3"/>
+      <c r="C534" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="D534" s="2"/>
     </row>
     <row r="535" spans="1:4">
@@ -8904,7 +8985,9 @@
         <v>30518</v>
       </c>
       <c r="C577" s="3"/>
-      <c r="D577" s="2"/>
+      <c r="D577" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="2" t="s">
@@ -9014,7 +9097,9 @@
         <v>30544</v>
       </c>
       <c r="C587" s="3"/>
-      <c r="D587" s="2"/>
+      <c r="D587" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="2" t="s">
@@ -9024,7 +9109,9 @@
         <v>30545</v>
       </c>
       <c r="C588" s="3"/>
-      <c r="D588" s="2"/>
+      <c r="D588" s="2" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="2" t="s">
